--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2527428.847911965</v>
+        <v>2525052.220964599</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9235352.467047196</v>
+        <v>9235352.467047192</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.68791694608889</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>286.9977044806033</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>54.99283228938624</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2705165323378</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>208.2474868886324</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>345.7367844057995</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>176.410837212323</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7691584824239</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>139.2262475794317</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>226.9686834372101</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>24.55276019063742</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.84815278861473</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754459</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0612007923062</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.095540256642</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.13302331623</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>863.86732470948</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>478.0790721112358</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>67.09316732162824</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1607.934920996351</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>1234.469162735271</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.695380320764</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>343.626060018204</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>638.3296170496758</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1037.376328260589</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>868.4401453326821</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>718.3235059203463</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>570.4104123379532</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>423.5204648400428</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>255.5340001483214</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>106.7951020118276</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234359</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1439.817372234359</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1439.817372234359</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>1219.024793090829</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.600156360221</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C5" t="n">
-        <v>1416.63763941981</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D5" t="n">
-        <v>1058.371940813059</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>672.5836882148151</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>261.5977834252075</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424343</v>
+        <v>1295.021456295685</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>551.2876347907471</v>
       </c>
       <c r="L6" t="n">
-        <v>1057.327935297104</v>
+        <v>845.9911918222188</v>
       </c>
       <c r="M6" t="n">
-        <v>1420.589954256325</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1807.87508285327</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>979.3205878948403</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>810.3844049669334</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>660.2677655545976</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>512.3546719722045</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>365.4647244742941</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>197.4782597825727</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>1381.76163186861</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>1381.76163186861</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="Y7" t="n">
-        <v>1160.96905272508</v>
+        <v>546.2888279392355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.87310169792</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251366</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2333.078031998934</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.612273737853</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.472941762042</v>
+        <v>1793.919728214993</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.90341785788</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299731</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176373</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352442</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733384</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1585.084349580947</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1388.455601740808</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1165.477120935544</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>876.3587834393812</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881197</v>
+        <v>400.8817160899642</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5513,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5598,22 +5598,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>615.6449305525891</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402534</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,34 +6124,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532803</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253734</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.475473980187</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.400247324385</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.715759118498</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.298589081537</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.30903818352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.30903818352</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="L3" t="n">
-        <v>138.9393975111051</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>129.4330134067486</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
-        <v>60.50016306149547</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108324</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>66.34424953498211</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="13">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597546</v>
@@ -26353,7 +26353,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719627</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.368461719659</v>
+      </c>
+      <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719668</v>
-      </c>
       <c r="H4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719723</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719692</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719652</v>
+        <v>7507.368461719683</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704496.0479176885</v>
+        <v>-704496.0479176887</v>
       </c>
       <c r="C6" t="n">
-        <v>410255.7356582314</v>
+        <v>410255.7356582313</v>
       </c>
       <c r="D6" t="n">
-        <v>410255.7356582309</v>
+        <v>410255.735658231</v>
       </c>
       <c r="E6" t="n">
-        <v>9423.274849582231</v>
+        <v>9388.536924146159</v>
       </c>
       <c r="F6" t="n">
-        <v>516908.7164741281</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="G6" t="n">
-        <v>516908.7164741279</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="H6" t="n">
-        <v>516908.7164741281</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="I6" t="n">
-        <v>516908.716474128</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="J6" t="n">
-        <v>349303.5386641455</v>
+        <v>349268.8007387099</v>
       </c>
       <c r="K6" t="n">
-        <v>516908.716474128</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="L6" t="n">
-        <v>516908.7164741281</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="M6" t="n">
-        <v>384301.4227452015</v>
+        <v>384266.6848197656</v>
       </c>
       <c r="N6" t="n">
-        <v>516908.7164741278</v>
+        <v>516873.9785486921</v>
       </c>
       <c r="O6" t="n">
-        <v>516908.716474128</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="P6" t="n">
-        <v>516908.7164741278</v>
+        <v>516873.9785486923</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.031580523222125e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26793,10 +26793,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>395.8597858268651</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>62.24326423680969</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>49.80376291451432</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>33.31413681975695</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>203.3002158843216</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>3.504184311613528</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.421142969614266</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>2.482350672704939</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>243.5075940840489</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>122.2722852802029</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>141.7538398541668</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>50.7094196309589</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935923</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>314.3020503687032</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954398</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,10 +33050,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,10 +34463,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>232.35237855373</v>
       </c>
       <c r="L3" t="n">
-        <v>436.6197581489553</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>316.0205096502334</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>395.9248450576184</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35036,7 +35036,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35261,7 +35261,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>530.1364971039794</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>253.050815171574</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>171.7058059242588</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121065</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,10 +38111,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
